--- a/CalculationCoordinator/Lookups.xlsx
+++ b/CalculationCoordinator/Lookups.xlsx
@@ -423,12 +423,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,43 +439,43 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" width="9.10" max="6"/>
-    <col min="7" width="9.10" max="7"/>
-    <col min="4" width="9.10" max="4"/>
-    <col min="5" width="9.10" max="5"/>
-    <col min="2" width="9.10" max="2"/>
-    <col min="3" width="9.10" max="3"/>
-    <col min="1" width="9.10" max="1"/>
-    <col min="14" width="9.10" max="14"/>
-    <col min="15" width="9.10" max="15"/>
-    <col min="12" width="9.10" max="12"/>
-    <col min="13" width="9.10" max="13"/>
-    <col min="10" width="9.10" max="10"/>
-    <col min="11" width="9.10" max="11"/>
-    <col min="8" width="9.10" max="8"/>
-    <col min="9" width="9.10" max="9"/>
-    <col min="22" width="9.10" max="22"/>
-    <col min="23" width="9.10" max="23"/>
-    <col min="20" width="9.10" max="20"/>
-    <col min="21" width="9.10" max="21"/>
-    <col min="18" width="9.10" max="18"/>
-    <col min="19" width="9.10" max="19"/>
-    <col min="16" width="9.10" max="16"/>
-    <col min="17" width="9.10" max="17"/>
-    <col min="24" width="9.10" max="24"/>
+    <col max="23" min="23" width="9.10"/>
+    <col max="22" min="22" width="9.10"/>
+    <col max="21" min="21" width="9.10"/>
+    <col max="20" min="20" width="9.10"/>
+    <col max="19" min="19" width="9.10"/>
+    <col max="18" min="18" width="9.10"/>
+    <col max="17" min="17" width="9.10"/>
+    <col max="16" min="16" width="9.10"/>
+    <col max="24" min="24" width="9.10"/>
+    <col max="7" min="7" width="9.10"/>
+    <col max="6" min="6" width="9.10"/>
+    <col max="5" min="5" width="9.10"/>
+    <col max="4" min="4" width="9.10"/>
+    <col max="3" min="3" width="9.10"/>
+    <col max="2" min="2" width="9.10"/>
+    <col max="1" min="1" width="9.10"/>
+    <col max="15" min="15" width="9.10"/>
+    <col max="14" min="14" width="9.10"/>
+    <col max="13" min="13" width="9.10"/>
+    <col max="12" min="12" width="9.10"/>
+    <col max="11" min="11" width="9.10"/>
+    <col max="10" min="10" width="9.10"/>
+    <col max="9" min="9" width="9.10"/>
+    <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:24" r="1">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:24" r="2">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row spans="1:24" r="3">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row spans="1:24" r="4">
+    <row r="4" spans="1:24">
       <c r="F4" t="s">
         <v>11</v>
       </c>

--- a/CalculationCoordinator/Lookups.xlsx
+++ b/CalculationCoordinator/Lookups.xlsx
@@ -16,6 +16,8 @@
     <definedName name="cuts_historical">'Lookups'!$F$4:$F$4</definedName>
     <definedName name="cuts_2">'Lookups'!$F$5:$F$4</definedName>
     <definedName name="cuts_3">'Lookups'!$F$5:$F$4</definedName>
+    <definedName name="cuts_4">'Lookups'!$F$5:$F$4</definedName>
+    <definedName name="cuts_5">'Lookups'!$F$5:$F$4</definedName>
     <definedName name="default_menu">'Lookups'!$F$2:$F$1001</definedName>
     <definedName name="default_mapping">'Lookups'!$F$2:$G$1001</definedName>
     <definedName name="default_menu_start">'Lookups'!$F$2</definedName>
@@ -423,12 +425,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,40 +441,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="23" min="23" width="9.10"/>
-    <col max="22" min="22" width="9.10"/>
-    <col max="21" min="21" width="9.10"/>
-    <col max="20" min="20" width="9.10"/>
-    <col max="19" min="19" width="9.10"/>
-    <col max="18" min="18" width="9.10"/>
-    <col max="17" min="17" width="9.10"/>
-    <col max="16" min="16" width="9.10"/>
-    <col max="24" min="24" width="9.10"/>
-    <col max="7" min="7" width="9.10"/>
-    <col max="6" min="6" width="9.10"/>
-    <col max="5" min="5" width="9.10"/>
-    <col max="4" min="4" width="9.10"/>
-    <col max="3" min="3" width="9.10"/>
-    <col max="2" min="2" width="9.10"/>
-    <col max="1" min="1" width="9.10"/>
-    <col max="15" min="15" width="9.10"/>
-    <col max="14" min="14" width="9.10"/>
-    <col max="13" min="13" width="9.10"/>
-    <col max="12" min="12" width="9.10"/>
-    <col max="11" min="11" width="9.10"/>
-    <col max="10" min="10" width="9.10"/>
-    <col max="9" min="9" width="9.10"/>
-    <col max="8" min="8" width="9.10"/>
+    <col min="7" width="9.10" max="7"/>
+    <col min="6" width="9.10" max="6"/>
+    <col min="5" width="9.10" max="5"/>
+    <col min="4" width="9.10" max="4"/>
+    <col min="3" width="9.10" max="3"/>
+    <col min="2" width="9.10" max="2"/>
+    <col min="1" width="9.10" max="1"/>
+    <col min="15" width="9.10" max="15"/>
+    <col min="14" width="9.10" max="14"/>
+    <col min="13" width="9.10" max="13"/>
+    <col min="12" width="9.10" max="12"/>
+    <col min="11" width="9.10" max="11"/>
+    <col min="10" width="9.10" max="10"/>
+    <col min="9" width="9.10" max="9"/>
+    <col min="8" width="9.10" max="8"/>
+    <col min="23" width="9.10" max="23"/>
+    <col min="22" width="9.10" max="22"/>
+    <col min="21" width="9.10" max="21"/>
+    <col min="20" width="9.10" max="20"/>
+    <col min="19" width="9.10" max="19"/>
+    <col min="18" width="9.10" max="18"/>
+    <col min="17" width="9.10" max="17"/>
+    <col min="16" width="9.10" max="16"/>
+    <col min="24" width="9.10" max="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">

--- a/CalculationCoordinator/Lookups.xlsx
+++ b/CalculationCoordinator/Lookups.xlsx
@@ -14,10 +14,10 @@
     <s:definedName name="cuts_config">'Lookups'!$A$1:$E$3</s:definedName>
     <s:definedName name="cuts">'Lookups'!$F$1:$F$3</s:definedName>
     <s:definedName name="cuts_historical">'Lookups'!$F$4:$F$4</s:definedName>
-    <s:definedName name="cuts_2">'Lookups'!$F$5:$F$4</s:definedName>
-    <s:definedName name="cuts_3">'Lookups'!$F$5:$F$4</s:definedName>
-    <s:definedName name="cuts_4">'Lookups'!$F$5:$F$4</s:definedName>
-    <s:definedName name="cuts_5">'Lookups'!$F$5:$F$4</s:definedName>
+    <s:definedName name="cuts_2">'Lookups'!$F$5:$F$5</s:definedName>
+    <s:definedName name="cuts_3">'Lookups'!$F$6:$F$5</s:definedName>
+    <s:definedName name="cuts_4">'Lookups'!$F$6:$F$5</s:definedName>
+    <s:definedName name="cuts_5">'Lookups'!$F$6:$F$5</s:definedName>
     <s:definedName name="default_menu">'Lookups'!$F$2:$F$1001</s:definedName>
     <s:definedName name="default_mapping">'Lookups'!$F$2:$G$1001</s:definedName>
     <s:definedName name="default_menu_start">'Lookups'!$F$2</s:definedName>
@@ -31,79 +31,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Corps</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>GenderB</t>
+  </si>
+  <si>
+    <t>GenderC</t>
+  </si>
+  <si>
+    <t>Gender_LIB</t>
+  </si>
+  <si>
+    <t>ValueOrderDimension</t>
+  </si>
+  <si>
+    <t>question_code</t>
+  </si>
+  <si>
+    <t>result_type</t>
+  </si>
+  <si>
+    <t>survey_code</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>Gender Not Used</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SoDak</t>
+  </si>
+  <si>
+    <t>lib</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Corps</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Gender Not Used</t>
-  </si>
-  <si>
-    <t>GenderB</t>
-  </si>
-  <si>
-    <t>GenderC</t>
-  </si>
-  <si>
-    <t>Gender_LIB</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>SoDak</t>
-  </si>
-  <si>
-    <t>ValueOrderDimension</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>lib</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>question_code</t>
-  </si>
-  <si>
-    <t>result_type</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>survey_code</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +437,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
@@ -445,16 +445,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins right="0.75" footer="0.5" top="1" left="0.75" bottom="1" header="0.5"/>
+  <pageMargins footer="0.5" right="0.75" left="0.75" header="0.5" bottom="1" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:X5"/>
   <sheetViews>
@@ -462,226 +462,229 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c t="s" r="A1">
+    <row spans="1:24" r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row spans="1:24" r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B1">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row spans="1:24" r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row spans="1:24" r="4">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="C1">
-        <v>13</v>
-      </c>
-      <c t="s" r="D1">
-        <v>15</v>
-      </c>
-      <c t="s" r="E1">
-        <v>7</v>
-      </c>
-      <c t="s" r="F1">
-        <v>15</v>
-      </c>
-      <c t="s" r="G1">
-        <v>8</v>
-      </c>
-      <c t="s" r="I1">
-        <v>10</v>
-      </c>
-      <c t="s" r="K1">
-        <v>11</v>
-      </c>
-      <c t="s" r="N1">
-        <v>12</v>
-      </c>
-      <c t="s" r="P1">
-        <v>17</v>
-      </c>
-      <c t="s" r="R1">
-        <v>21</v>
-      </c>
-      <c t="s" r="T1">
-        <v>22</v>
-      </c>
-      <c t="s" r="V1">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="X1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:24">
-      <c t="s" r="A2">
-        <v>15</v>
-      </c>
-      <c t="s" r="B2">
-        <v>23</v>
-      </c>
-      <c t="s" r="C2">
-        <v>15</v>
-      </c>
-      <c t="s" r="D2">
-        <v>7</v>
-      </c>
-      <c t="s" r="E2">
-        <v>14</v>
-      </c>
-      <c t="s" r="F2">
-        <v>13</v>
-      </c>
-      <c t="s" r="G2">
-        <v>20</v>
-      </c>
-      <c t="s" r="H2">
-        <v>1</v>
-      </c>
-      <c t="s" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" r="J2">
-        <v>0</v>
-      </c>
-      <c t="s" r="K2">
-        <v>18</v>
-      </c>
-      <c t="s" r="L2">
-        <v>2</v>
-      </c>
-      <c t="s" r="M2">
-        <v>5</v>
-      </c>
-      <c t="s" r="N2">
-        <v>20</v>
-      </c>
-      <c t="s" r="O2">
-        <v>1</v>
-      </c>
-      <c t="s" r="P2">
-        <v>6</v>
-      </c>
-      <c t="s" r="Q2">
-        <v>2</v>
-      </c>
-      <c t="s" r="R2">
-        <v>20</v>
-      </c>
-      <c t="s" r="S2">
-        <v>1</v>
-      </c>
-      <c t="s" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" r="U2">
-        <v>1</v>
-      </c>
-      <c t="s" r="V2">
-        <v>20</v>
-      </c>
-      <c t="s" r="W2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c t="s" r="A3">
-        <v>8</v>
-      </c>
-      <c t="s" r="B3">
-        <v>23</v>
-      </c>
-      <c t="s" r="C3">
-        <v>8</v>
-      </c>
-      <c t="s" r="D3">
-        <v>15</v>
-      </c>
-      <c t="s" r="E3">
-        <v>7</v>
-      </c>
-      <c t="s" r="F3">
-        <v>8</v>
-      </c>
-      <c t="s" r="G3">
-        <v>18</v>
-      </c>
-      <c t="s" r="H3">
-        <v>2</v>
-      </c>
-      <c t="s" r="I3">
-        <v>20</v>
-      </c>
-      <c t="s" r="J3">
-        <v>1</v>
-      </c>
-      <c t="s" r="K3">
-        <v>20</v>
-      </c>
-      <c t="s" r="L3">
-        <v>1</v>
-      </c>
-      <c t="s" r="M3">
-        <v>5</v>
-      </c>
-      <c t="s" r="N3">
-        <v>18</v>
-      </c>
-      <c t="s" r="O3">
-        <v>2</v>
-      </c>
-      <c t="s" r="P3">
+    <row spans="1:24" r="5">
+      <c r="F5" t="s">
         <v>4</v>
-      </c>
-      <c t="s" r="Q3">
-        <v>1</v>
-      </c>
-      <c t="s" r="R3">
-        <v>18</v>
-      </c>
-      <c t="s" r="S3">
-        <v>2</v>
-      </c>
-      <c t="s" r="T3">
-        <v>18</v>
-      </c>
-      <c t="s" r="U3">
-        <v>2</v>
-      </c>
-      <c t="s" r="V3">
-        <v>18</v>
-      </c>
-      <c t="s" r="W3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c t="s" r="I4">
-        <v>18</v>
-      </c>
-      <c t="s" r="J4">
-        <v>2</v>
-      </c>
-      <c t="s" r="K4">
-        <v>18</v>
-      </c>
-      <c t="s" r="L4">
-        <v>2</v>
-      </c>
-      <c t="s" r="M4">
-        <v>16</v>
-      </c>
-      <c t="s" r="N4">
-        <v>19</v>
-      </c>
-      <c t="s" r="O4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c t="s" r="F5">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" left="0.75" bottom="1" header="0.5"/>
+  <pageMargins footer="0.5" right="0.75" left="0.75" header="0.5" bottom="1" top="1"/>
 </worksheet>
 </file>